--- a/Пример.xlsx
+++ b/Пример.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragentX\Desktop\Клапаны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragentX\Desktop\autoCAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC647D94-3BCA-41BC-92C9-560298D3974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31400E98-8AD7-4E73-8DCD-07E0324D94D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,6 +1001,57 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1024,57 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1499,10 +1499,10 @@
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="28" t="s">
         <v>220</v>
       </c>
@@ -1512,10 +1512,10 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="28" t="s">
         <v>221</v>
       </c>
@@ -1525,10 +1525,10 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>222</v>
       </c>
@@ -1538,10 +1538,10 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="28" t="s">
         <v>223</v>
       </c>
@@ -1551,10 +1551,10 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
         <v>224</v>
       </c>
@@ -1564,242 +1564,242 @@
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
     </row>
     <row r="9" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="Q9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39" t="s">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="41" t="s">
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="42" t="s">
+      <c r="AA9" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AB9" s="43" t="s">
+      <c r="AB9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="44" t="s">
+      <c r="AC9" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AD9" s="45" t="s">
+      <c r="AD9" s="48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="40" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="51" t="s">
+      <c r="L10" s="36"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="R10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="46" t="s">
+      <c r="U10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="40" t="s">
+      <c r="V10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="46" t="s">
+      <c r="W10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="X10" s="46" t="s">
+      <c r="X10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Y10" s="49" t="s">
+      <c r="Y10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="48"/>
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="45"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="48"/>
     </row>
     <row r="12" spans="1:30" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="45"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="48"/>
     </row>
     <row r="13" spans="1:30" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
@@ -2969,7 +2969,7 @@
         <v>151</v>
       </c>
       <c r="K26" s="31">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="L26" s="29" t="s">
         <v>180</v>
@@ -3216,8 +3216,8 @@
     <row r="29" spans="1:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
       <c r="AB29" s="12" t="s">
         <v>199</v>
       </c>
@@ -3226,1838 +3226,1838 @@
       </c>
     </row>
     <row r="30" spans="1:30" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:30" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
     </row>
     <row r="32" spans="1:30" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
     </row>
     <row r="33" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
     </row>
     <row r="34" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
     </row>
     <row r="35" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
     </row>
     <row r="36" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
     </row>
     <row r="37" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
     </row>
     <row r="38" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
     </row>
     <row r="39" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="54"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
     </row>
     <row r="40" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
     </row>
     <row r="41" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
     </row>
     <row r="42" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
     </row>
     <row r="43" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
     </row>
     <row r="44" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
     </row>
     <row r="45" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="54"/>
-      <c r="AC45" s="54"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
     </row>
     <row r="46" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="54"/>
-      <c r="AB46" s="54"/>
-      <c r="AC46" s="54"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
     </row>
     <row r="47" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
     </row>
     <row r="48" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="54"/>
-      <c r="AC48" s="54"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
     </row>
     <row r="49" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="54"/>
-      <c r="AB49" s="54"/>
-      <c r="AC49" s="54"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
     </row>
     <row r="50" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="54"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="54"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
     </row>
     <row r="51" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="54"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
     </row>
     <row r="52" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="54"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
     </row>
     <row r="53" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
     </row>
     <row r="54" spans="1:29" s="1" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
     </row>
     <row r="55" spans="1:29" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
     </row>
     <row r="58" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
     </row>
     <row r="59" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="34"/>
     </row>
     <row r="60" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="34"/>
     </row>
     <row r="61" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
     </row>
     <row r="62" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="34"/>
+      <c r="AC62" s="34"/>
     </row>
     <row r="63" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="54"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="34"/>
+      <c r="AC63" s="34"/>
     </row>
     <row r="64" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="34"/>
+      <c r="AC64" s="34"/>
     </row>
     <row r="65" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="54"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
     </row>
     <row r="66" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="54"/>
-      <c r="X66" s="54"/>
-      <c r="Y66" s="54"/>
-      <c r="Z66" s="54"/>
-      <c r="AA66" s="54"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="54"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
     </row>
     <row r="67" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
-      <c r="V67" s="54"/>
-      <c r="W67" s="54"/>
-      <c r="X67" s="54"/>
-      <c r="Y67" s="54"/>
-      <c r="Z67" s="54"/>
-      <c r="AA67" s="54"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="54"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
     </row>
     <row r="68" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-      <c r="W68" s="54"/>
-      <c r="X68" s="54"/>
-      <c r="Y68" s="54"/>
-      <c r="Z68" s="54"/>
-      <c r="AA68" s="54"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="54"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="34"/>
+      <c r="AC68" s="34"/>
     </row>
     <row r="69" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
-      <c r="V69" s="54"/>
-      <c r="W69" s="54"/>
-      <c r="X69" s="54"/>
-      <c r="Y69" s="54"/>
-      <c r="Z69" s="54"/>
-      <c r="AA69" s="54"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="54"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="34"/>
     </row>
     <row r="70" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="54"/>
-      <c r="S70" s="54"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="54"/>
-      <c r="V70" s="54"/>
-      <c r="W70" s="54"/>
-      <c r="X70" s="54"/>
-      <c r="Y70" s="54"/>
-      <c r="Z70" s="54"/>
-      <c r="AA70" s="54"/>
-      <c r="AB70" s="54"/>
-      <c r="AC70" s="54"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="34"/>
+      <c r="AC70" s="34"/>
     </row>
     <row r="71" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
-      <c r="V71" s="54"/>
-      <c r="W71" s="54"/>
-      <c r="X71" s="54"/>
-      <c r="Y71" s="54"/>
-      <c r="Z71" s="54"/>
-      <c r="AA71" s="54"/>
-      <c r="AB71" s="54"/>
-      <c r="AC71" s="54"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="34"/>
+      <c r="AC71" s="34"/>
     </row>
     <row r="72" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="54"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="54"/>
-      <c r="V72" s="54"/>
-      <c r="W72" s="54"/>
-      <c r="X72" s="54"/>
-      <c r="Y72" s="54"/>
-      <c r="Z72" s="54"/>
-      <c r="AA72" s="54"/>
-      <c r="AB72" s="54"/>
-      <c r="AC72" s="54"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="34"/>
+      <c r="AC72" s="34"/>
     </row>
     <row r="73" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="54"/>
-      <c r="T73" s="54"/>
-      <c r="U73" s="54"/>
-      <c r="V73" s="54"/>
-      <c r="W73" s="54"/>
-      <c r="X73" s="54"/>
-      <c r="Y73" s="54"/>
-      <c r="Z73" s="54"/>
-      <c r="AA73" s="54"/>
-      <c r="AB73" s="54"/>
-      <c r="AC73" s="54"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="34"/>
+      <c r="AC73" s="34"/>
     </row>
     <row r="74" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
-      <c r="V74" s="54"/>
-      <c r="W74" s="54"/>
-      <c r="X74" s="54"/>
-      <c r="Y74" s="54"/>
-      <c r="Z74" s="54"/>
-      <c r="AA74" s="54"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="54"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
+      <c r="AB74" s="34"/>
+      <c r="AC74" s="34"/>
     </row>
     <row r="75" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="54"/>
-      <c r="T75" s="54"/>
-      <c r="U75" s="54"/>
-      <c r="V75" s="54"/>
-      <c r="W75" s="54"/>
-      <c r="X75" s="54"/>
-      <c r="Y75" s="54"/>
-      <c r="Z75" s="54"/>
-      <c r="AA75" s="54"/>
-      <c r="AB75" s="54"/>
-      <c r="AC75" s="54"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+      <c r="AC75" s="34"/>
     </row>
     <row r="76" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
-      <c r="V76" s="54"/>
-      <c r="W76" s="54"/>
-      <c r="X76" s="54"/>
-      <c r="Y76" s="54"/>
-      <c r="Z76" s="54"/>
-      <c r="AA76" s="54"/>
-      <c r="AB76" s="54"/>
-      <c r="AC76" s="54"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="34"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
+      <c r="AC76" s="34"/>
     </row>
     <row r="77" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
-      <c r="V77" s="54"/>
-      <c r="W77" s="54"/>
-      <c r="X77" s="54"/>
-      <c r="Y77" s="54"/>
-      <c r="Z77" s="54"/>
-      <c r="AA77" s="54"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="54"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
+      <c r="AB77" s="34"/>
+      <c r="AC77" s="34"/>
     </row>
     <row r="78" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="54"/>
-      <c r="V78" s="54"/>
-      <c r="W78" s="54"/>
-      <c r="X78" s="54"/>
-      <c r="Y78" s="54"/>
-      <c r="Z78" s="54"/>
-      <c r="AA78" s="54"/>
-      <c r="AB78" s="54"/>
-      <c r="AC78" s="54"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
     </row>
     <row r="79" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="54"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="54"/>
-      <c r="U79" s="54"/>
-      <c r="V79" s="54"/>
-      <c r="W79" s="54"/>
-      <c r="X79" s="54"/>
-      <c r="Y79" s="54"/>
-      <c r="Z79" s="54"/>
-      <c r="AA79" s="54"/>
-      <c r="AB79" s="54"/>
-      <c r="AC79" s="54"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
+      <c r="AB79" s="34"/>
+      <c r="AC79" s="34"/>
     </row>
     <row r="80" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="55"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="55"/>
-      <c r="U80" s="55"/>
-      <c r="V80" s="55"/>
-      <c r="W80" s="55"/>
-      <c r="X80" s="55"/>
-      <c r="Y80" s="55"/>
-      <c r="Z80" s="55"/>
-      <c r="AA80" s="55"/>
-      <c r="AB80" s="55"/>
-      <c r="AC80" s="55"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="32"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="32"/>
+      <c r="R80" s="32"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="32"/>
+      <c r="U80" s="32"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="32"/>
+      <c r="Z80" s="32"/>
+      <c r="AA80" s="32"/>
+      <c r="AB80" s="32"/>
+      <c r="AC80" s="32"/>
     </row>
     <row r="81" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="55"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="55"/>
-      <c r="R81" s="55"/>
-      <c r="S81" s="55"/>
-      <c r="T81" s="55"/>
-      <c r="U81" s="55"/>
-      <c r="V81" s="55"/>
-      <c r="W81" s="55"/>
-      <c r="X81" s="55"/>
-      <c r="Y81" s="55"/>
-      <c r="Z81" s="55"/>
-      <c r="AA81" s="55"/>
-      <c r="AB81" s="55"/>
-      <c r="AC81" s="55"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="32"/>
+      <c r="W81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="32"/>
+      <c r="Z81" s="32"/>
+      <c r="AA81" s="32"/>
+      <c r="AB81" s="32"/>
+      <c r="AC81" s="32"/>
     </row>
     <row r="82" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="55"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="55"/>
-      <c r="R82" s="55"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="55"/>
-      <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
-      <c r="W82" s="55"/>
-      <c r="X82" s="55"/>
-      <c r="Y82" s="55"/>
-      <c r="Z82" s="55"/>
-      <c r="AA82" s="55"/>
-      <c r="AB82" s="55"/>
-      <c r="AC82" s="55"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="32"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="32"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
     </row>
     <row r="83" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="55"/>
-      <c r="U83" s="55"/>
-      <c r="V83" s="55"/>
-      <c r="W83" s="55"/>
-      <c r="X83" s="55"/>
-      <c r="Y83" s="55"/>
-      <c r="Z83" s="55"/>
-      <c r="AA83" s="55"/>
-      <c r="AB83" s="55"/>
-      <c r="AC83" s="55"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="32"/>
+      <c r="U83" s="32"/>
+      <c r="V83" s="32"/>
+      <c r="W83" s="32"/>
+      <c r="X83" s="32"/>
+      <c r="Y83" s="32"/>
+      <c r="Z83" s="32"/>
+      <c r="AA83" s="32"/>
+      <c r="AB83" s="32"/>
+      <c r="AC83" s="32"/>
     </row>
     <row r="84" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="55"/>
-      <c r="R84" s="55"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="55"/>
-      <c r="U84" s="55"/>
-      <c r="V84" s="55"/>
-      <c r="W84" s="55"/>
-      <c r="X84" s="55"/>
-      <c r="Y84" s="55"/>
-      <c r="Z84" s="55"/>
-      <c r="AA84" s="55"/>
-      <c r="AB84" s="55"/>
-      <c r="AC84" s="55"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="32"/>
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
     </row>
     <row r="85" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="55"/>
-      <c r="R85" s="55"/>
-      <c r="S85" s="55"/>
-      <c r="T85" s="55"/>
-      <c r="U85" s="55"/>
-      <c r="V85" s="55"/>
-      <c r="W85" s="55"/>
-      <c r="X85" s="55"/>
-      <c r="Y85" s="55"/>
-      <c r="Z85" s="55"/>
-      <c r="AA85" s="55"/>
-      <c r="AB85" s="55"/>
-      <c r="AC85" s="55"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="32"/>
+      <c r="U85" s="32"/>
+      <c r="V85" s="32"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="32"/>
+      <c r="Z85" s="32"/>
+      <c r="AA85" s="32"/>
+      <c r="AB85" s="32"/>
+      <c r="AC85" s="32"/>
     </row>
     <row r="86" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="55"/>
-      <c r="R86" s="55"/>
-      <c r="S86" s="55"/>
-      <c r="T86" s="55"/>
-      <c r="U86" s="55"/>
-      <c r="V86" s="55"/>
-      <c r="W86" s="55"/>
-      <c r="X86" s="55"/>
-      <c r="Y86" s="55"/>
-      <c r="Z86" s="55"/>
-      <c r="AA86" s="55"/>
-      <c r="AB86" s="55"/>
-      <c r="AC86" s="55"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="32"/>
+      <c r="U86" s="32"/>
+      <c r="V86" s="32"/>
+      <c r="W86" s="32"/>
+      <c r="X86" s="32"/>
+      <c r="Y86" s="32"/>
+      <c r="Z86" s="32"/>
+      <c r="AA86" s="32"/>
+      <c r="AB86" s="32"/>
+      <c r="AC86" s="32"/>
     </row>
     <row r="87" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="55"/>
-      <c r="R87" s="55"/>
-      <c r="S87" s="55"/>
-      <c r="T87" s="55"/>
-      <c r="U87" s="55"/>
-      <c r="V87" s="55"/>
-      <c r="W87" s="55"/>
-      <c r="X87" s="55"/>
-      <c r="Y87" s="55"/>
-      <c r="Z87" s="55"/>
-      <c r="AA87" s="55"/>
-      <c r="AB87" s="55"/>
-      <c r="AC87" s="55"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="32"/>
+      <c r="W87" s="32"/>
+      <c r="X87" s="32"/>
+      <c r="Y87" s="32"/>
+      <c r="Z87" s="32"/>
+      <c r="AA87" s="32"/>
+      <c r="AB87" s="32"/>
+      <c r="AC87" s="32"/>
     </row>
     <row r="88" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="55"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="55"/>
-      <c r="Q88" s="55"/>
-      <c r="R88" s="55"/>
-      <c r="S88" s="55"/>
-      <c r="T88" s="55"/>
-      <c r="U88" s="55"/>
-      <c r="V88" s="55"/>
-      <c r="W88" s="55"/>
-      <c r="X88" s="55"/>
-      <c r="Y88" s="55"/>
-      <c r="Z88" s="55"/>
-      <c r="AA88" s="55"/>
-      <c r="AB88" s="55"/>
-      <c r="AC88" s="55"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="32"/>
+      <c r="X88" s="32"/>
+      <c r="Y88" s="32"/>
+      <c r="Z88" s="32"/>
+      <c r="AA88" s="32"/>
+      <c r="AB88" s="32"/>
+      <c r="AC88" s="32"/>
     </row>
     <row r="89" spans="1:29" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="56"/>
-      <c r="U89" s="56"/>
-      <c r="V89" s="56"/>
-      <c r="W89" s="56"/>
-      <c r="X89" s="56"/>
-      <c r="Y89" s="56"/>
-      <c r="Z89" s="56"/>
-      <c r="AA89" s="56"/>
-      <c r="AB89" s="56"/>
-      <c r="AC89" s="56"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="33"/>
+      <c r="U89" s="33"/>
+      <c r="V89" s="33"/>
+      <c r="W89" s="33"/>
+      <c r="X89" s="33"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
+      <c r="AB89" s="33"/>
+      <c r="AC89" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:Z54" xr:uid="{5876C7B6-EB21-43CA-9CC3-9F63BB92AC20}">
@@ -5068,85 +5068,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="100">
-    <mergeCell ref="A86:AC86"/>
-    <mergeCell ref="A87:AC87"/>
-    <mergeCell ref="A88:AC88"/>
-    <mergeCell ref="A89:AC89"/>
-    <mergeCell ref="A81:AC81"/>
-    <mergeCell ref="A82:AC82"/>
-    <mergeCell ref="A83:AC83"/>
-    <mergeCell ref="A84:AC84"/>
-    <mergeCell ref="A85:AC85"/>
-    <mergeCell ref="A76:AC76"/>
-    <mergeCell ref="A77:AC77"/>
-    <mergeCell ref="A78:AC78"/>
-    <mergeCell ref="A79:AC79"/>
-    <mergeCell ref="A80:AC80"/>
-    <mergeCell ref="A71:AC71"/>
-    <mergeCell ref="A72:AC72"/>
-    <mergeCell ref="A73:AC73"/>
-    <mergeCell ref="A74:AC74"/>
-    <mergeCell ref="A75:AC75"/>
-    <mergeCell ref="A66:AC66"/>
-    <mergeCell ref="A67:AC67"/>
-    <mergeCell ref="A68:AC68"/>
-    <mergeCell ref="A69:AC69"/>
-    <mergeCell ref="A70:AC70"/>
-    <mergeCell ref="A61:AC61"/>
-    <mergeCell ref="A62:AC62"/>
-    <mergeCell ref="A63:AC63"/>
-    <mergeCell ref="A64:AC64"/>
-    <mergeCell ref="A65:AC65"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:AC57"/>
-    <mergeCell ref="A58:AC58"/>
-    <mergeCell ref="A59:AC59"/>
-    <mergeCell ref="A60:AC60"/>
-    <mergeCell ref="A50:AC50"/>
-    <mergeCell ref="A51:AC51"/>
-    <mergeCell ref="A52:AC52"/>
-    <mergeCell ref="A53:AC53"/>
-    <mergeCell ref="A54:AC54"/>
-    <mergeCell ref="A45:AC45"/>
-    <mergeCell ref="A46:AC46"/>
-    <mergeCell ref="A47:AC47"/>
-    <mergeCell ref="A48:AC48"/>
-    <mergeCell ref="A49:AC49"/>
-    <mergeCell ref="A40:AC40"/>
-    <mergeCell ref="A41:AC41"/>
-    <mergeCell ref="A42:AC42"/>
-    <mergeCell ref="A43:AC43"/>
-    <mergeCell ref="A44:AC44"/>
-    <mergeCell ref="A35:AC35"/>
-    <mergeCell ref="A36:AC36"/>
-    <mergeCell ref="A37:AC37"/>
-    <mergeCell ref="A38:AC38"/>
-    <mergeCell ref="A39:AC39"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:AC31"/>
-    <mergeCell ref="A32:AC32"/>
-    <mergeCell ref="A33:AC33"/>
-    <mergeCell ref="A34:AC34"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="Z9:Z12"/>
-    <mergeCell ref="AA9:AA12"/>
-    <mergeCell ref="AB9:AB12"/>
-    <mergeCell ref="AC9:AC12"/>
-    <mergeCell ref="AD9:AD12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:AD8"/>
     <mergeCell ref="A9:A12"/>
@@ -5163,11 +5089,85 @@
     <mergeCell ref="P9:P12"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="Z9:Z12"/>
+    <mergeCell ref="AA9:AA12"/>
+    <mergeCell ref="AB9:AB12"/>
+    <mergeCell ref="AC9:AC12"/>
+    <mergeCell ref="AD9:AD12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="X10:X12"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:AC31"/>
+    <mergeCell ref="A32:AC32"/>
+    <mergeCell ref="A33:AC33"/>
+    <mergeCell ref="A34:AC34"/>
+    <mergeCell ref="A35:AC35"/>
+    <mergeCell ref="A36:AC36"/>
+    <mergeCell ref="A37:AC37"/>
+    <mergeCell ref="A38:AC38"/>
+    <mergeCell ref="A39:AC39"/>
+    <mergeCell ref="A40:AC40"/>
+    <mergeCell ref="A41:AC41"/>
+    <mergeCell ref="A42:AC42"/>
+    <mergeCell ref="A43:AC43"/>
+    <mergeCell ref="A44:AC44"/>
+    <mergeCell ref="A45:AC45"/>
+    <mergeCell ref="A46:AC46"/>
+    <mergeCell ref="A47:AC47"/>
+    <mergeCell ref="A48:AC48"/>
+    <mergeCell ref="A49:AC49"/>
+    <mergeCell ref="A50:AC50"/>
+    <mergeCell ref="A51:AC51"/>
+    <mergeCell ref="A52:AC52"/>
+    <mergeCell ref="A53:AC53"/>
+    <mergeCell ref="A54:AC54"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:AC57"/>
+    <mergeCell ref="A58:AC58"/>
+    <mergeCell ref="A59:AC59"/>
+    <mergeCell ref="A60:AC60"/>
+    <mergeCell ref="A61:AC61"/>
+    <mergeCell ref="A62:AC62"/>
+    <mergeCell ref="A63:AC63"/>
+    <mergeCell ref="A64:AC64"/>
+    <mergeCell ref="A65:AC65"/>
+    <mergeCell ref="A66:AC66"/>
+    <mergeCell ref="A67:AC67"/>
+    <mergeCell ref="A68:AC68"/>
+    <mergeCell ref="A69:AC69"/>
+    <mergeCell ref="A70:AC70"/>
+    <mergeCell ref="A71:AC71"/>
+    <mergeCell ref="A72:AC72"/>
+    <mergeCell ref="A73:AC73"/>
+    <mergeCell ref="A74:AC74"/>
+    <mergeCell ref="A75:AC75"/>
+    <mergeCell ref="A76:AC76"/>
+    <mergeCell ref="A77:AC77"/>
+    <mergeCell ref="A78:AC78"/>
+    <mergeCell ref="A79:AC79"/>
+    <mergeCell ref="A80:AC80"/>
+    <mergeCell ref="A86:AC86"/>
+    <mergeCell ref="A87:AC87"/>
+    <mergeCell ref="A88:AC88"/>
+    <mergeCell ref="A89:AC89"/>
+    <mergeCell ref="A81:AC81"/>
+    <mergeCell ref="A82:AC82"/>
+    <mergeCell ref="A83:AC83"/>
+    <mergeCell ref="A84:AC84"/>
+    <mergeCell ref="A85:AC85"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Пример.xlsx
+++ b/Пример.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragentX\Desktop\autoCAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31400E98-8AD7-4E73-8DCD-07E0324D94D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CD882-BF1A-409E-9CFE-56CD13E85893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="224">
   <si>
     <t>Заказчик:</t>
   </si>
@@ -595,9 +595,6 @@
   </si>
   <si>
     <t>ДД</t>
-  </si>
-  <si>
-    <t>PA</t>
   </si>
   <si>
     <t>0,3</t>
@@ -1001,80 +998,80 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,14 +1456,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:AD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1499,12 +1496,12 @@
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>1</v>
@@ -1512,12 +1509,12 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>3</v>
@@ -1525,12 +1522,12 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>5</v>
@@ -1538,12 +1535,12 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>7</v>
@@ -1551,12 +1548,12 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>9</v>
@@ -1564,242 +1561,242 @@
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
     </row>
     <row r="9" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="36" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="45" t="s">
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="46" t="s">
+      <c r="AA9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AB9" s="41" t="s">
+      <c r="AB9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="47" t="s">
+      <c r="AC9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AD9" s="48" t="s">
+      <c r="AD9" s="45" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="36" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="40" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="R10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="S10" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="37" t="s">
+      <c r="U10" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="37" t="s">
+      <c r="W10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="Y10" s="38" t="s">
+      <c r="Y10" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="48"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="45"/>
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="48"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="45"/>
     </row>
     <row r="12" spans="1:30" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="48"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="45"/>
     </row>
     <row r="13" spans="1:30" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
@@ -1833,7 +1830,7 @@
       <c r="AC13" s="24"/>
       <c r="AD13" s="25"/>
     </row>
-    <row r="14" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
@@ -1925,7 +1922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>72</v>
       </c>
@@ -2017,7 +2014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>87</v>
       </c>
@@ -2109,7 +2106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>95</v>
       </c>
@@ -2201,7 +2198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>102</v>
       </c>
@@ -2293,7 +2290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>108</v>
       </c>
@@ -2385,7 +2382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>117</v>
       </c>
@@ -2477,7 +2474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>125</v>
       </c>
@@ -2569,7 +2566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>133</v>
       </c>
@@ -2661,7 +2658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>143</v>
       </c>
@@ -2753,7 +2750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="7" customFormat="1" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>146</v>
       </c>
@@ -2845,7 +2842,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>157</v>
       </c>
@@ -2989,29 +2986,29 @@
       <c r="Q26" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="R26" s="29" t="s">
+      <c r="R26" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S26" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="S26" s="29" t="s">
+      <c r="T26" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="T26" s="29" t="s">
+      <c r="U26" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="U26" s="29" t="s">
+      <c r="V26" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="W26" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="V26" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="W26" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="X26" s="29" t="s">
         <v>171</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z26" s="8" t="s">
         <v>173</v>
@@ -3020,7 +3017,7 @@
         <v>70</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC26" s="8" t="s">
         <v>53</v>
@@ -3029,18 +3026,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>49</v>
@@ -3064,7 +3061,7 @@
         <v>52</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>128</v>
@@ -3076,7 +3073,7 @@
         <v>79</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>61</v>
@@ -3106,7 +3103,7 @@
         <v>142</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA27" s="8" t="s">
         <v>70</v>
@@ -3121,18 +3118,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="D28" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>49</v>
@@ -3168,7 +3165,7 @@
         <v>79</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>61</v>
@@ -3213,1866 +3210,1934 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
       <c r="AB29" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AD29" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31" spans="1:30" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+    </row>
+    <row r="32" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-    </row>
-    <row r="32" spans="1:30" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+    </row>
+    <row r="33" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-    </row>
-    <row r="33" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+    </row>
+    <row r="34" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-    </row>
-    <row r="34" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+    </row>
+    <row r="35" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-    </row>
-    <row r="35" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+    </row>
+    <row r="36" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+    </row>
+    <row r="37" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-    </row>
-    <row r="36" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-    </row>
-    <row r="37" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+    </row>
+    <row r="38" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+    </row>
+    <row r="39" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-    </row>
-    <row r="38" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-    </row>
-    <row r="39" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+    </row>
+    <row r="40" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-    </row>
-    <row r="40" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+    </row>
+    <row r="41" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-    </row>
-    <row r="41" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+    </row>
+    <row r="42" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-    </row>
-    <row r="42" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+    </row>
+    <row r="43" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-    </row>
-    <row r="43" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="54"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="54"/>
+      <c r="AC43" s="54"/>
+    </row>
+    <row r="44" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-    </row>
-    <row r="44" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="54"/>
+      <c r="AC44" s="54"/>
+    </row>
+    <row r="45" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-    </row>
-    <row r="45" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54"/>
+      <c r="AC45" s="54"/>
+    </row>
+    <row r="46" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="54"/>
+      <c r="AB46" s="54"/>
+      <c r="AC46" s="54"/>
+    </row>
+    <row r="47" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
-    </row>
-    <row r="46" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
-    </row>
-    <row r="47" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="54"/>
+      <c r="AB47" s="54"/>
+      <c r="AC47" s="54"/>
+    </row>
+    <row r="48" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-    </row>
-    <row r="48" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="54"/>
+      <c r="AB48" s="54"/>
+      <c r="AC48" s="54"/>
+    </row>
+    <row r="49" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-    </row>
-    <row r="49" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="54"/>
+      <c r="AB49" s="54"/>
+      <c r="AC49" s="54"/>
+    </row>
+    <row r="50" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-    </row>
-    <row r="50" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="54"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="54"/>
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54"/>
+      <c r="AA50" s="54"/>
+      <c r="AB50" s="54"/>
+      <c r="AC50" s="54"/>
+    </row>
+    <row r="51" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-    </row>
-    <row r="51" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="54"/>
+      <c r="W51" s="54"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="54"/>
+      <c r="AC51" s="54"/>
+    </row>
+    <row r="52" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-    </row>
-    <row r="52" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
-    </row>
-    <row r="53" spans="1:29" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
-    </row>
-    <row r="54" spans="1:29" s="1" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="34"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="54"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="54"/>
+    </row>
+    <row r="53" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="54"/>
+      <c r="AB53" s="54"/>
+      <c r="AC53" s="54"/>
+    </row>
+    <row r="54" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="54"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="54"/>
     </row>
     <row r="55" spans="1:29" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
     </row>
     <row r="57" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
-      <c r="AB57" s="34"/>
-      <c r="AC57" s="34"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
     </row>
     <row r="58" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="54"/>
+      <c r="X58" s="54"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="54"/>
+      <c r="AC58" s="54"/>
     </row>
     <row r="59" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
-      <c r="AB59" s="34"/>
-      <c r="AC59" s="34"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="54"/>
+      <c r="X59" s="54"/>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="54"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="54"/>
     </row>
     <row r="60" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="34"/>
-      <c r="AC60" s="34"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="54"/>
     </row>
     <row r="61" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="34"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
-      <c r="AB61" s="34"/>
-      <c r="AC61" s="34"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
     </row>
     <row r="62" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="54"/>
     </row>
     <row r="63" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="34"/>
-      <c r="AC63" s="34"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
     </row>
     <row r="64" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
-      <c r="AB64" s="34"/>
-      <c r="AC64" s="34"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="54"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="54"/>
     </row>
     <row r="65" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="34"/>
-      <c r="AC65" s="34"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="54"/>
+      <c r="X65" s="54"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="54"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="54"/>
     </row>
     <row r="66" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="54"/>
+      <c r="X66" s="54"/>
+      <c r="Y66" s="54"/>
+      <c r="Z66" s="54"/>
+      <c r="AA66" s="54"/>
+      <c r="AB66" s="54"/>
+      <c r="AC66" s="54"/>
     </row>
     <row r="67" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
-      <c r="AB67" s="34"/>
-      <c r="AC67" s="34"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="54"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="54"/>
+      <c r="W67" s="54"/>
+      <c r="X67" s="54"/>
+      <c r="Y67" s="54"/>
+      <c r="Z67" s="54"/>
+      <c r="AA67" s="54"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="54"/>
     </row>
     <row r="68" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
-      <c r="AB68" s="34"/>
-      <c r="AC68" s="34"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="54"/>
+      <c r="W68" s="54"/>
+      <c r="X68" s="54"/>
+      <c r="Y68" s="54"/>
+      <c r="Z68" s="54"/>
+      <c r="AA68" s="54"/>
+      <c r="AB68" s="54"/>
+      <c r="AC68" s="54"/>
     </row>
     <row r="69" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="34"/>
-      <c r="AC69" s="34"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="54"/>
+      <c r="Y69" s="54"/>
+      <c r="Z69" s="54"/>
+      <c r="AA69" s="54"/>
+      <c r="AB69" s="54"/>
+      <c r="AC69" s="54"/>
     </row>
     <row r="70" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
-      <c r="AB70" s="34"/>
-      <c r="AC70" s="34"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="54"/>
+      <c r="W70" s="54"/>
+      <c r="X70" s="54"/>
+      <c r="Y70" s="54"/>
+      <c r="Z70" s="54"/>
+      <c r="AA70" s="54"/>
+      <c r="AB70" s="54"/>
+      <c r="AC70" s="54"/>
     </row>
     <row r="71" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="34"/>
-      <c r="AC71" s="34"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="54"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="54"/>
+      <c r="W71" s="54"/>
+      <c r="X71" s="54"/>
+      <c r="Y71" s="54"/>
+      <c r="Z71" s="54"/>
+      <c r="AA71" s="54"/>
+      <c r="AB71" s="54"/>
+      <c r="AC71" s="54"/>
     </row>
     <row r="72" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
-      <c r="AB72" s="34"/>
-      <c r="AC72" s="34"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="54"/>
+      <c r="X72" s="54"/>
+      <c r="Y72" s="54"/>
+      <c r="Z72" s="54"/>
+      <c r="AA72" s="54"/>
+      <c r="AB72" s="54"/>
+      <c r="AC72" s="54"/>
     </row>
     <row r="73" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="34"/>
-      <c r="AC73" s="34"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="54"/>
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="54"/>
+      <c r="W73" s="54"/>
+      <c r="X73" s="54"/>
+      <c r="Y73" s="54"/>
+      <c r="Z73" s="54"/>
+      <c r="AA73" s="54"/>
+      <c r="AB73" s="54"/>
+      <c r="AC73" s="54"/>
     </row>
     <row r="74" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="34"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="34"/>
-      <c r="V74" s="34"/>
-      <c r="W74" s="34"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="34"/>
-      <c r="AC74" s="34"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="54"/>
+      <c r="V74" s="54"/>
+      <c r="W74" s="54"/>
+      <c r="X74" s="54"/>
+      <c r="Y74" s="54"/>
+      <c r="Z74" s="54"/>
+      <c r="AA74" s="54"/>
+      <c r="AB74" s="54"/>
+      <c r="AC74" s="54"/>
     </row>
     <row r="75" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="54"/>
+      <c r="T75" s="54"/>
+      <c r="U75" s="54"/>
+      <c r="V75" s="54"/>
+      <c r="W75" s="54"/>
+      <c r="X75" s="54"/>
+      <c r="Y75" s="54"/>
+      <c r="Z75" s="54"/>
+      <c r="AA75" s="54"/>
+      <c r="AB75" s="54"/>
+      <c r="AC75" s="54"/>
     </row>
     <row r="76" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="34"/>
-      <c r="W76" s="34"/>
-      <c r="X76" s="34"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
-      <c r="AB76" s="34"/>
-      <c r="AC76" s="34"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="54"/>
+      <c r="S76" s="54"/>
+      <c r="T76" s="54"/>
+      <c r="U76" s="54"/>
+      <c r="V76" s="54"/>
+      <c r="W76" s="54"/>
+      <c r="X76" s="54"/>
+      <c r="Y76" s="54"/>
+      <c r="Z76" s="54"/>
+      <c r="AA76" s="54"/>
+      <c r="AB76" s="54"/>
+      <c r="AC76" s="54"/>
     </row>
     <row r="77" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
-      <c r="V77" s="34"/>
-      <c r="W77" s="34"/>
-      <c r="X77" s="34"/>
-      <c r="Y77" s="34"/>
-      <c r="Z77" s="34"/>
-      <c r="AA77" s="34"/>
-      <c r="AB77" s="34"/>
-      <c r="AC77" s="34"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="54"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="54"/>
+      <c r="S77" s="54"/>
+      <c r="T77" s="54"/>
+      <c r="U77" s="54"/>
+      <c r="V77" s="54"/>
+      <c r="W77" s="54"/>
+      <c r="X77" s="54"/>
+      <c r="Y77" s="54"/>
+      <c r="Z77" s="54"/>
+      <c r="AA77" s="54"/>
+      <c r="AB77" s="54"/>
+      <c r="AC77" s="54"/>
     </row>
     <row r="78" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="34"/>
-      <c r="W78" s="34"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="34"/>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="34"/>
-      <c r="AC78" s="34"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="54"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="54"/>
+      <c r="S78" s="54"/>
+      <c r="T78" s="54"/>
+      <c r="U78" s="54"/>
+      <c r="V78" s="54"/>
+      <c r="W78" s="54"/>
+      <c r="X78" s="54"/>
+      <c r="Y78" s="54"/>
+      <c r="Z78" s="54"/>
+      <c r="AA78" s="54"/>
+      <c r="AB78" s="54"/>
+      <c r="AC78" s="54"/>
     </row>
     <row r="79" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="34"/>
-      <c r="S79" s="34"/>
-      <c r="T79" s="34"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="34"/>
-      <c r="W79" s="34"/>
-      <c r="X79" s="34"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
-      <c r="AB79" s="34"/>
-      <c r="AC79" s="34"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="54"/>
+      <c r="P79" s="54"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="54"/>
+      <c r="S79" s="54"/>
+      <c r="T79" s="54"/>
+      <c r="U79" s="54"/>
+      <c r="V79" s="54"/>
+      <c r="W79" s="54"/>
+      <c r="X79" s="54"/>
+      <c r="Y79" s="54"/>
+      <c r="Z79" s="54"/>
+      <c r="AA79" s="54"/>
+      <c r="AB79" s="54"/>
+      <c r="AC79" s="54"/>
     </row>
     <row r="80" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
-      <c r="T80" s="32"/>
-      <c r="U80" s="32"/>
-      <c r="V80" s="32"/>
-      <c r="W80" s="32"/>
-      <c r="X80" s="32"/>
-      <c r="Y80" s="32"/>
-      <c r="Z80" s="32"/>
-      <c r="AA80" s="32"/>
-      <c r="AB80" s="32"/>
-      <c r="AC80" s="32"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="55"/>
+      <c r="X80" s="55"/>
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="55"/>
+      <c r="AA80" s="55"/>
+      <c r="AB80" s="55"/>
+      <c r="AC80" s="55"/>
     </row>
     <row r="81" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="32"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="32"/>
-      <c r="W81" s="32"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="32"/>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="32"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="55"/>
+      <c r="W81" s="55"/>
+      <c r="X81" s="55"/>
+      <c r="Y81" s="55"/>
+      <c r="Z81" s="55"/>
+      <c r="AA81" s="55"/>
+      <c r="AB81" s="55"/>
+      <c r="AC81" s="55"/>
     </row>
     <row r="82" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="32"/>
-      <c r="T82" s="32"/>
-      <c r="U82" s="32"/>
-      <c r="V82" s="32"/>
-      <c r="W82" s="32"/>
-      <c r="X82" s="32"/>
-      <c r="Y82" s="32"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="32"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="55"/>
+      <c r="R82" s="55"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
+      <c r="X82" s="55"/>
+      <c r="Y82" s="55"/>
+      <c r="Z82" s="55"/>
+      <c r="AA82" s="55"/>
+      <c r="AB82" s="55"/>
+      <c r="AC82" s="55"/>
     </row>
     <row r="83" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="32"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="32"/>
-      <c r="T83" s="32"/>
-      <c r="U83" s="32"/>
-      <c r="V83" s="32"/>
-      <c r="W83" s="32"/>
-      <c r="X83" s="32"/>
-      <c r="Y83" s="32"/>
-      <c r="Z83" s="32"/>
-      <c r="AA83" s="32"/>
-      <c r="AB83" s="32"/>
-      <c r="AC83" s="32"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="55"/>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="55"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="55"/>
+      <c r="U83" s="55"/>
+      <c r="V83" s="55"/>
+      <c r="W83" s="55"/>
+      <c r="X83" s="55"/>
+      <c r="Y83" s="55"/>
+      <c r="Z83" s="55"/>
+      <c r="AA83" s="55"/>
+      <c r="AB83" s="55"/>
+      <c r="AC83" s="55"/>
     </row>
     <row r="84" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="55"/>
+      <c r="R84" s="55"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="55"/>
+      <c r="V84" s="55"/>
+      <c r="W84" s="55"/>
+      <c r="X84" s="55"/>
+      <c r="Y84" s="55"/>
+      <c r="Z84" s="55"/>
+      <c r="AA84" s="55"/>
+      <c r="AB84" s="55"/>
+      <c r="AC84" s="55"/>
     </row>
     <row r="85" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="32"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="32"/>
-      <c r="Q85" s="32"/>
-      <c r="R85" s="32"/>
-      <c r="S85" s="32"/>
-      <c r="T85" s="32"/>
-      <c r="U85" s="32"/>
-      <c r="V85" s="32"/>
-      <c r="W85" s="32"/>
-      <c r="X85" s="32"/>
-      <c r="Y85" s="32"/>
-      <c r="Z85" s="32"/>
-      <c r="AA85" s="32"/>
-      <c r="AB85" s="32"/>
-      <c r="AC85" s="32"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="55"/>
+      <c r="Q85" s="55"/>
+      <c r="R85" s="55"/>
+      <c r="S85" s="55"/>
+      <c r="T85" s="55"/>
+      <c r="U85" s="55"/>
+      <c r="V85" s="55"/>
+      <c r="W85" s="55"/>
+      <c r="X85" s="55"/>
+      <c r="Y85" s="55"/>
+      <c r="Z85" s="55"/>
+      <c r="AA85" s="55"/>
+      <c r="AB85" s="55"/>
+      <c r="AC85" s="55"/>
     </row>
     <row r="86" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
-      <c r="T86" s="32"/>
-      <c r="U86" s="32"/>
-      <c r="V86" s="32"/>
-      <c r="W86" s="32"/>
-      <c r="X86" s="32"/>
-      <c r="Y86" s="32"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
-      <c r="AB86" s="32"/>
-      <c r="AC86" s="32"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="55"/>
+      <c r="Q86" s="55"/>
+      <c r="R86" s="55"/>
+      <c r="S86" s="55"/>
+      <c r="T86" s="55"/>
+      <c r="U86" s="55"/>
+      <c r="V86" s="55"/>
+      <c r="W86" s="55"/>
+      <c r="X86" s="55"/>
+      <c r="Y86" s="55"/>
+      <c r="Z86" s="55"/>
+      <c r="AA86" s="55"/>
+      <c r="AB86" s="55"/>
+      <c r="AC86" s="55"/>
     </row>
     <row r="87" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="32"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-      <c r="AB87" s="32"/>
-      <c r="AC87" s="32"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="55"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="55"/>
+      <c r="T87" s="55"/>
+      <c r="U87" s="55"/>
+      <c r="V87" s="55"/>
+      <c r="W87" s="55"/>
+      <c r="X87" s="55"/>
+      <c r="Y87" s="55"/>
+      <c r="Z87" s="55"/>
+      <c r="AA87" s="55"/>
+      <c r="AB87" s="55"/>
+      <c r="AC87" s="55"/>
     </row>
     <row r="88" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
-      <c r="T88" s="32"/>
-      <c r="U88" s="32"/>
-      <c r="V88" s="32"/>
-      <c r="W88" s="32"/>
-      <c r="X88" s="32"/>
-      <c r="Y88" s="32"/>
-      <c r="Z88" s="32"/>
-      <c r="AA88" s="32"/>
-      <c r="AB88" s="32"/>
-      <c r="AC88" s="32"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="55"/>
+      <c r="S88" s="55"/>
+      <c r="T88" s="55"/>
+      <c r="U88" s="55"/>
+      <c r="V88" s="55"/>
+      <c r="W88" s="55"/>
+      <c r="X88" s="55"/>
+      <c r="Y88" s="55"/>
+      <c r="Z88" s="55"/>
+      <c r="AA88" s="55"/>
+      <c r="AB88" s="55"/>
+      <c r="AC88" s="55"/>
     </row>
     <row r="89" spans="1:29" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="33"/>
-      <c r="W89" s="33"/>
-      <c r="X89" s="33"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
-      <c r="AB89" s="33"/>
-      <c r="AC89" s="33"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="56"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
+      <c r="T89" s="56"/>
+      <c r="U89" s="56"/>
+      <c r="V89" s="56"/>
+      <c r="W89" s="56"/>
+      <c r="X89" s="56"/>
+      <c r="Y89" s="56"/>
+      <c r="Z89" s="56"/>
+      <c r="AA89" s="56"/>
+      <c r="AB89" s="56"/>
+      <c r="AC89" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:Z54" xr:uid="{5876C7B6-EB21-43CA-9CC3-9F63BB92AC20}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="SEB"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A13:Z54" xr:uid="{5876C7B6-EB21-43CA-9CC3-9F63BB92AC20}"/>
   <mergeCells count="100">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A86:AC86"/>
+    <mergeCell ref="A87:AC87"/>
+    <mergeCell ref="A88:AC88"/>
+    <mergeCell ref="A89:AC89"/>
+    <mergeCell ref="A81:AC81"/>
+    <mergeCell ref="A82:AC82"/>
+    <mergeCell ref="A83:AC83"/>
+    <mergeCell ref="A84:AC84"/>
+    <mergeCell ref="A85:AC85"/>
+    <mergeCell ref="A76:AC76"/>
+    <mergeCell ref="A77:AC77"/>
+    <mergeCell ref="A78:AC78"/>
+    <mergeCell ref="A79:AC79"/>
+    <mergeCell ref="A80:AC80"/>
+    <mergeCell ref="A71:AC71"/>
+    <mergeCell ref="A72:AC72"/>
+    <mergeCell ref="A73:AC73"/>
+    <mergeCell ref="A74:AC74"/>
+    <mergeCell ref="A75:AC75"/>
+    <mergeCell ref="A66:AC66"/>
+    <mergeCell ref="A67:AC67"/>
+    <mergeCell ref="A68:AC68"/>
+    <mergeCell ref="A69:AC69"/>
+    <mergeCell ref="A70:AC70"/>
+    <mergeCell ref="A61:AC61"/>
+    <mergeCell ref="A62:AC62"/>
+    <mergeCell ref="A63:AC63"/>
+    <mergeCell ref="A64:AC64"/>
+    <mergeCell ref="A65:AC65"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:AC57"/>
+    <mergeCell ref="A58:AC58"/>
+    <mergeCell ref="A59:AC59"/>
+    <mergeCell ref="A60:AC60"/>
+    <mergeCell ref="A50:AC50"/>
+    <mergeCell ref="A51:AC51"/>
+    <mergeCell ref="A52:AC52"/>
+    <mergeCell ref="A53:AC53"/>
+    <mergeCell ref="A54:AC54"/>
+    <mergeCell ref="A45:AC45"/>
+    <mergeCell ref="A46:AC46"/>
+    <mergeCell ref="A47:AC47"/>
+    <mergeCell ref="A48:AC48"/>
+    <mergeCell ref="A49:AC49"/>
+    <mergeCell ref="A40:AC40"/>
+    <mergeCell ref="A41:AC41"/>
+    <mergeCell ref="A42:AC42"/>
+    <mergeCell ref="A43:AC43"/>
+    <mergeCell ref="A44:AC44"/>
+    <mergeCell ref="A35:AC35"/>
+    <mergeCell ref="A36:AC36"/>
+    <mergeCell ref="A37:AC37"/>
+    <mergeCell ref="A38:AC38"/>
+    <mergeCell ref="A39:AC39"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:AC31"/>
+    <mergeCell ref="A32:AC32"/>
+    <mergeCell ref="A33:AC33"/>
+    <mergeCell ref="A34:AC34"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="X10:X12"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="Z9:Z12"/>
+    <mergeCell ref="AA9:AA12"/>
+    <mergeCell ref="AB9:AB12"/>
+    <mergeCell ref="AC9:AC12"/>
+    <mergeCell ref="AD9:AD12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:AD8"/>
     <mergeCell ref="A9:A12"/>
@@ -5089,85 +5154,11 @@
     <mergeCell ref="P9:P12"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="Z9:Z12"/>
-    <mergeCell ref="AA9:AA12"/>
-    <mergeCell ref="AB9:AB12"/>
-    <mergeCell ref="AC9:AC12"/>
-    <mergeCell ref="AD9:AD12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:AC31"/>
-    <mergeCell ref="A32:AC32"/>
-    <mergeCell ref="A33:AC33"/>
-    <mergeCell ref="A34:AC34"/>
-    <mergeCell ref="A35:AC35"/>
-    <mergeCell ref="A36:AC36"/>
-    <mergeCell ref="A37:AC37"/>
-    <mergeCell ref="A38:AC38"/>
-    <mergeCell ref="A39:AC39"/>
-    <mergeCell ref="A40:AC40"/>
-    <mergeCell ref="A41:AC41"/>
-    <mergeCell ref="A42:AC42"/>
-    <mergeCell ref="A43:AC43"/>
-    <mergeCell ref="A44:AC44"/>
-    <mergeCell ref="A45:AC45"/>
-    <mergeCell ref="A46:AC46"/>
-    <mergeCell ref="A47:AC47"/>
-    <mergeCell ref="A48:AC48"/>
-    <mergeCell ref="A49:AC49"/>
-    <mergeCell ref="A50:AC50"/>
-    <mergeCell ref="A51:AC51"/>
-    <mergeCell ref="A52:AC52"/>
-    <mergeCell ref="A53:AC53"/>
-    <mergeCell ref="A54:AC54"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:AC57"/>
-    <mergeCell ref="A58:AC58"/>
-    <mergeCell ref="A59:AC59"/>
-    <mergeCell ref="A60:AC60"/>
-    <mergeCell ref="A61:AC61"/>
-    <mergeCell ref="A62:AC62"/>
-    <mergeCell ref="A63:AC63"/>
-    <mergeCell ref="A64:AC64"/>
-    <mergeCell ref="A65:AC65"/>
-    <mergeCell ref="A66:AC66"/>
-    <mergeCell ref="A67:AC67"/>
-    <mergeCell ref="A68:AC68"/>
-    <mergeCell ref="A69:AC69"/>
-    <mergeCell ref="A70:AC70"/>
-    <mergeCell ref="A71:AC71"/>
-    <mergeCell ref="A72:AC72"/>
-    <mergeCell ref="A73:AC73"/>
-    <mergeCell ref="A74:AC74"/>
-    <mergeCell ref="A75:AC75"/>
-    <mergeCell ref="A76:AC76"/>
-    <mergeCell ref="A77:AC77"/>
-    <mergeCell ref="A78:AC78"/>
-    <mergeCell ref="A79:AC79"/>
-    <mergeCell ref="A80:AC80"/>
-    <mergeCell ref="A86:AC86"/>
-    <mergeCell ref="A87:AC87"/>
-    <mergeCell ref="A88:AC88"/>
-    <mergeCell ref="A89:AC89"/>
-    <mergeCell ref="A81:AC81"/>
-    <mergeCell ref="A82:AC82"/>
-    <mergeCell ref="A83:AC83"/>
-    <mergeCell ref="A84:AC84"/>
-    <mergeCell ref="A85:AC85"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Пример.xlsx
+++ b/Пример.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragentX\Desktop\autoCAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CD882-BF1A-409E-9CFE-56CD13E85893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8212B72C-9199-4B45-A604-C53DE2D65484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,9 +612,6 @@
     <t>15ХМ</t>
   </si>
   <si>
-    <t>1,2,3,3,4,5,6,7,8,11</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -721,6 +718,9 @@
   </si>
   <si>
     <t>Дрова</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,11</t>
   </si>
 </sst>
 </file>
@@ -998,6 +998,57 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1021,57 +1072,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,8 +1462,8 @@
   </sheetPr>
   <dimension ref="A1:AD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1496,12 +1496,12 @@
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>1</v>
@@ -1509,12 +1509,12 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>3</v>
@@ -1522,12 +1522,12 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>5</v>
@@ -1535,12 +1535,12 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>7</v>
@@ -1548,12 +1548,12 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>9</v>
@@ -1561,242 +1561,242 @@
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
     </row>
     <row r="9" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="Q9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39" t="s">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="41" t="s">
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="42" t="s">
+      <c r="AA9" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AB9" s="43" t="s">
+      <c r="AB9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="44" t="s">
+      <c r="AC9" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AD9" s="45" t="s">
+      <c r="AD9" s="48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="40" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="51" t="s">
+      <c r="L10" s="36"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="R10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="46" t="s">
+      <c r="U10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="40" t="s">
+      <c r="V10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="46" t="s">
+      <c r="W10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="X10" s="46" t="s">
+      <c r="X10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Y10" s="49" t="s">
+      <c r="Y10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="48"/>
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="45"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="48"/>
     </row>
     <row r="12" spans="1:30" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="45"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="48"/>
     </row>
     <row r="13" spans="1:30" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
@@ -3017,7 +3017,7 @@
         <v>70</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="AC26" s="8" t="s">
         <v>53</v>
@@ -3028,16 +3028,16 @@
     </row>
     <row r="27" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>49</v>
@@ -3061,7 +3061,7 @@
         <v>52</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>128</v>
@@ -3073,7 +3073,7 @@
         <v>79</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>61</v>
@@ -3103,7 +3103,7 @@
         <v>142</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA27" s="8" t="s">
         <v>70</v>
@@ -3123,13 +3123,13 @@
         <v>105</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="D28" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>49</v>
@@ -3165,7 +3165,7 @@
         <v>79</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>61</v>
@@ -3213,1931 +3213,1857 @@
     <row r="29" spans="1:30" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
       <c r="AB29" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AD29" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+    </row>
+    <row r="31" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-    </row>
-    <row r="31" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+    </row>
+    <row r="32" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-    </row>
-    <row r="32" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+    </row>
+    <row r="33" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-    </row>
-    <row r="33" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+    </row>
+    <row r="34" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-    </row>
-    <row r="34" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+    </row>
+    <row r="35" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-    </row>
-    <row r="35" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+    </row>
+    <row r="36" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+    </row>
+    <row r="37" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-    </row>
-    <row r="36" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-    </row>
-    <row r="37" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+    </row>
+    <row r="38" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+    </row>
+    <row r="39" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-    </row>
-    <row r="38" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-    </row>
-    <row r="39" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+    </row>
+    <row r="40" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="54"/>
-    </row>
-    <row r="40" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+    </row>
+    <row r="41" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-    </row>
-    <row r="41" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+    </row>
+    <row r="42" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
-    </row>
-    <row r="42" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+    </row>
+    <row r="43" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
-    </row>
-    <row r="43" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+    </row>
+    <row r="44" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
-    </row>
-    <row r="44" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+    </row>
+    <row r="45" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
-    </row>
-    <row r="45" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+    </row>
+    <row r="46" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+    </row>
+    <row r="47" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="54"/>
-      <c r="AC45" s="54"/>
-    </row>
-    <row r="46" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="54"/>
-      <c r="AB46" s="54"/>
-      <c r="AC46" s="54"/>
-    </row>
-    <row r="47" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+    </row>
+    <row r="48" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
-    </row>
-    <row r="48" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+    </row>
+    <row r="49" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="54"/>
-      <c r="AC48" s="54"/>
-    </row>
-    <row r="49" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+    </row>
+    <row r="50" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="54"/>
-      <c r="AB49" s="54"/>
-      <c r="AC49" s="54"/>
-    </row>
-    <row r="50" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54" t="s">
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+    </row>
+    <row r="51" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="54"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="54"/>
-    </row>
-    <row r="51" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+    </row>
+    <row r="52" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="54"/>
-    </row>
-    <row r="52" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="54"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
     </row>
     <row r="53" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
+      <c r="A53" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
     </row>
     <row r="54" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
+      <c r="A54" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
     </row>
     <row r="55" spans="1:29" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
     </row>
     <row r="58" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
     </row>
     <row r="59" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="34"/>
     </row>
     <row r="60" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="34"/>
     </row>
     <row r="61" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
     </row>
     <row r="62" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="34"/>
+      <c r="AC62" s="34"/>
     </row>
     <row r="63" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="54"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="34"/>
+      <c r="AC63" s="34"/>
     </row>
     <row r="64" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="34"/>
+      <c r="AC64" s="34"/>
     </row>
     <row r="65" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="54"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
     </row>
     <row r="66" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="54"/>
-      <c r="X66" s="54"/>
-      <c r="Y66" s="54"/>
-      <c r="Z66" s="54"/>
-      <c r="AA66" s="54"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="54"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
     </row>
     <row r="67" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
-      <c r="V67" s="54"/>
-      <c r="W67" s="54"/>
-      <c r="X67" s="54"/>
-      <c r="Y67" s="54"/>
-      <c r="Z67" s="54"/>
-      <c r="AA67" s="54"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="54"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
     </row>
     <row r="68" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-      <c r="W68" s="54"/>
-      <c r="X68" s="54"/>
-      <c r="Y68" s="54"/>
-      <c r="Z68" s="54"/>
-      <c r="AA68" s="54"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="54"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="34"/>
+      <c r="AC68" s="34"/>
     </row>
     <row r="69" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
-      <c r="V69" s="54"/>
-      <c r="W69" s="54"/>
-      <c r="X69" s="54"/>
-      <c r="Y69" s="54"/>
-      <c r="Z69" s="54"/>
-      <c r="AA69" s="54"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="54"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="34"/>
     </row>
     <row r="70" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="54"/>
-      <c r="S70" s="54"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="54"/>
-      <c r="V70" s="54"/>
-      <c r="W70" s="54"/>
-      <c r="X70" s="54"/>
-      <c r="Y70" s="54"/>
-      <c r="Z70" s="54"/>
-      <c r="AA70" s="54"/>
-      <c r="AB70" s="54"/>
-      <c r="AC70" s="54"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="34"/>
+      <c r="AC70" s="34"/>
     </row>
     <row r="71" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
-      <c r="V71" s="54"/>
-      <c r="W71" s="54"/>
-      <c r="X71" s="54"/>
-      <c r="Y71" s="54"/>
-      <c r="Z71" s="54"/>
-      <c r="AA71" s="54"/>
-      <c r="AB71" s="54"/>
-      <c r="AC71" s="54"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="34"/>
+      <c r="AC71" s="34"/>
     </row>
     <row r="72" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="54"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="54"/>
-      <c r="V72" s="54"/>
-      <c r="W72" s="54"/>
-      <c r="X72" s="54"/>
-      <c r="Y72" s="54"/>
-      <c r="Z72" s="54"/>
-      <c r="AA72" s="54"/>
-      <c r="AB72" s="54"/>
-      <c r="AC72" s="54"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="34"/>
+      <c r="AC72" s="34"/>
     </row>
     <row r="73" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="54"/>
-      <c r="T73" s="54"/>
-      <c r="U73" s="54"/>
-      <c r="V73" s="54"/>
-      <c r="W73" s="54"/>
-      <c r="X73" s="54"/>
-      <c r="Y73" s="54"/>
-      <c r="Z73" s="54"/>
-      <c r="AA73" s="54"/>
-      <c r="AB73" s="54"/>
-      <c r="AC73" s="54"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="34"/>
+      <c r="AC73" s="34"/>
     </row>
     <row r="74" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
-      <c r="V74" s="54"/>
-      <c r="W74" s="54"/>
-      <c r="X74" s="54"/>
-      <c r="Y74" s="54"/>
-      <c r="Z74" s="54"/>
-      <c r="AA74" s="54"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="54"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
+      <c r="AB74" s="34"/>
+      <c r="AC74" s="34"/>
     </row>
     <row r="75" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="54"/>
-      <c r="T75" s="54"/>
-      <c r="U75" s="54"/>
-      <c r="V75" s="54"/>
-      <c r="W75" s="54"/>
-      <c r="X75" s="54"/>
-      <c r="Y75" s="54"/>
-      <c r="Z75" s="54"/>
-      <c r="AA75" s="54"/>
-      <c r="AB75" s="54"/>
-      <c r="AC75" s="54"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+      <c r="AC75" s="34"/>
     </row>
     <row r="76" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
-      <c r="V76" s="54"/>
-      <c r="W76" s="54"/>
-      <c r="X76" s="54"/>
-      <c r="Y76" s="54"/>
-      <c r="Z76" s="54"/>
-      <c r="AA76" s="54"/>
-      <c r="AB76" s="54"/>
-      <c r="AC76" s="54"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="34"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
+      <c r="AC76" s="34"/>
     </row>
     <row r="77" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
-      <c r="V77" s="54"/>
-      <c r="W77" s="54"/>
-      <c r="X77" s="54"/>
-      <c r="Y77" s="54"/>
-      <c r="Z77" s="54"/>
-      <c r="AA77" s="54"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="54"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
+      <c r="AB77" s="34"/>
+      <c r="AC77" s="34"/>
     </row>
     <row r="78" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="54"/>
-      <c r="V78" s="54"/>
-      <c r="W78" s="54"/>
-      <c r="X78" s="54"/>
-      <c r="Y78" s="54"/>
-      <c r="Z78" s="54"/>
-      <c r="AA78" s="54"/>
-      <c r="AB78" s="54"/>
-      <c r="AC78" s="54"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
     </row>
     <row r="79" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="54"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="54"/>
-      <c r="U79" s="54"/>
-      <c r="V79" s="54"/>
-      <c r="W79" s="54"/>
-      <c r="X79" s="54"/>
-      <c r="Y79" s="54"/>
-      <c r="Z79" s="54"/>
-      <c r="AA79" s="54"/>
-      <c r="AB79" s="54"/>
-      <c r="AC79" s="54"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
+      <c r="AB79" s="34"/>
+      <c r="AC79" s="34"/>
     </row>
     <row r="80" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="55"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="55"/>
-      <c r="U80" s="55"/>
-      <c r="V80" s="55"/>
-      <c r="W80" s="55"/>
-      <c r="X80" s="55"/>
-      <c r="Y80" s="55"/>
-      <c r="Z80" s="55"/>
-      <c r="AA80" s="55"/>
-      <c r="AB80" s="55"/>
-      <c r="AC80" s="55"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="32"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="32"/>
+      <c r="R80" s="32"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="32"/>
+      <c r="U80" s="32"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="32"/>
+      <c r="Z80" s="32"/>
+      <c r="AA80" s="32"/>
+      <c r="AB80" s="32"/>
+      <c r="AC80" s="32"/>
     </row>
     <row r="81" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="55"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="55"/>
-      <c r="R81" s="55"/>
-      <c r="S81" s="55"/>
-      <c r="T81" s="55"/>
-      <c r="U81" s="55"/>
-      <c r="V81" s="55"/>
-      <c r="W81" s="55"/>
-      <c r="X81" s="55"/>
-      <c r="Y81" s="55"/>
-      <c r="Z81" s="55"/>
-      <c r="AA81" s="55"/>
-      <c r="AB81" s="55"/>
-      <c r="AC81" s="55"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="32"/>
+      <c r="W81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="32"/>
+      <c r="Z81" s="32"/>
+      <c r="AA81" s="32"/>
+      <c r="AB81" s="32"/>
+      <c r="AC81" s="32"/>
     </row>
     <row r="82" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="55"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="55"/>
-      <c r="R82" s="55"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="55"/>
-      <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
-      <c r="W82" s="55"/>
-      <c r="X82" s="55"/>
-      <c r="Y82" s="55"/>
-      <c r="Z82" s="55"/>
-      <c r="AA82" s="55"/>
-      <c r="AB82" s="55"/>
-      <c r="AC82" s="55"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="32"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="32"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
     </row>
     <row r="83" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="55"/>
-      <c r="U83" s="55"/>
-      <c r="V83" s="55"/>
-      <c r="W83" s="55"/>
-      <c r="X83" s="55"/>
-      <c r="Y83" s="55"/>
-      <c r="Z83" s="55"/>
-      <c r="AA83" s="55"/>
-      <c r="AB83" s="55"/>
-      <c r="AC83" s="55"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="32"/>
+      <c r="U83" s="32"/>
+      <c r="V83" s="32"/>
+      <c r="W83" s="32"/>
+      <c r="X83" s="32"/>
+      <c r="Y83" s="32"/>
+      <c r="Z83" s="32"/>
+      <c r="AA83" s="32"/>
+      <c r="AB83" s="32"/>
+      <c r="AC83" s="32"/>
     </row>
     <row r="84" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="55"/>
-      <c r="R84" s="55"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="55"/>
-      <c r="U84" s="55"/>
-      <c r="V84" s="55"/>
-      <c r="W84" s="55"/>
-      <c r="X84" s="55"/>
-      <c r="Y84" s="55"/>
-      <c r="Z84" s="55"/>
-      <c r="AA84" s="55"/>
-      <c r="AB84" s="55"/>
-      <c r="AC84" s="55"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="32"/>
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
     </row>
     <row r="85" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="55"/>
-      <c r="R85" s="55"/>
-      <c r="S85" s="55"/>
-      <c r="T85" s="55"/>
-      <c r="U85" s="55"/>
-      <c r="V85" s="55"/>
-      <c r="W85" s="55"/>
-      <c r="X85" s="55"/>
-      <c r="Y85" s="55"/>
-      <c r="Z85" s="55"/>
-      <c r="AA85" s="55"/>
-      <c r="AB85" s="55"/>
-      <c r="AC85" s="55"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="32"/>
+      <c r="U85" s="32"/>
+      <c r="V85" s="32"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="32"/>
+      <c r="Z85" s="32"/>
+      <c r="AA85" s="32"/>
+      <c r="AB85" s="32"/>
+      <c r="AC85" s="32"/>
     </row>
     <row r="86" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="55"/>
-      <c r="R86" s="55"/>
-      <c r="S86" s="55"/>
-      <c r="T86" s="55"/>
-      <c r="U86" s="55"/>
-      <c r="V86" s="55"/>
-      <c r="W86" s="55"/>
-      <c r="X86" s="55"/>
-      <c r="Y86" s="55"/>
-      <c r="Z86" s="55"/>
-      <c r="AA86" s="55"/>
-      <c r="AB86" s="55"/>
-      <c r="AC86" s="55"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="32"/>
+      <c r="U86" s="32"/>
+      <c r="V86" s="32"/>
+      <c r="W86" s="32"/>
+      <c r="X86" s="32"/>
+      <c r="Y86" s="32"/>
+      <c r="Z86" s="32"/>
+      <c r="AA86" s="32"/>
+      <c r="AB86" s="32"/>
+      <c r="AC86" s="32"/>
     </row>
     <row r="87" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="55"/>
-      <c r="R87" s="55"/>
-      <c r="S87" s="55"/>
-      <c r="T87" s="55"/>
-      <c r="U87" s="55"/>
-      <c r="V87" s="55"/>
-      <c r="W87" s="55"/>
-      <c r="X87" s="55"/>
-      <c r="Y87" s="55"/>
-      <c r="Z87" s="55"/>
-      <c r="AA87" s="55"/>
-      <c r="AB87" s="55"/>
-      <c r="AC87" s="55"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="32"/>
+      <c r="W87" s="32"/>
+      <c r="X87" s="32"/>
+      <c r="Y87" s="32"/>
+      <c r="Z87" s="32"/>
+      <c r="AA87" s="32"/>
+      <c r="AB87" s="32"/>
+      <c r="AC87" s="32"/>
     </row>
     <row r="88" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="55"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="55"/>
-      <c r="Q88" s="55"/>
-      <c r="R88" s="55"/>
-      <c r="S88" s="55"/>
-      <c r="T88" s="55"/>
-      <c r="U88" s="55"/>
-      <c r="V88" s="55"/>
-      <c r="W88" s="55"/>
-      <c r="X88" s="55"/>
-      <c r="Y88" s="55"/>
-      <c r="Z88" s="55"/>
-      <c r="AA88" s="55"/>
-      <c r="AB88" s="55"/>
-      <c r="AC88" s="55"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="32"/>
+      <c r="X88" s="32"/>
+      <c r="Y88" s="32"/>
+      <c r="Z88" s="32"/>
+      <c r="AA88" s="32"/>
+      <c r="AB88" s="32"/>
+      <c r="AC88" s="32"/>
     </row>
     <row r="89" spans="1:29" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="56"/>
-      <c r="U89" s="56"/>
-      <c r="V89" s="56"/>
-      <c r="W89" s="56"/>
-      <c r="X89" s="56"/>
-      <c r="Y89" s="56"/>
-      <c r="Z89" s="56"/>
-      <c r="AA89" s="56"/>
-      <c r="AB89" s="56"/>
-      <c r="AC89" s="56"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="33"/>
+      <c r="U89" s="33"/>
+      <c r="V89" s="33"/>
+      <c r="W89" s="33"/>
+      <c r="X89" s="33"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
+      <c r="AB89" s="33"/>
+      <c r="AC89" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:Z54" xr:uid="{5876C7B6-EB21-43CA-9CC3-9F63BB92AC20}"/>
   <mergeCells count="100">
-    <mergeCell ref="A86:AC86"/>
-    <mergeCell ref="A87:AC87"/>
-    <mergeCell ref="A88:AC88"/>
-    <mergeCell ref="A89:AC89"/>
-    <mergeCell ref="A81:AC81"/>
-    <mergeCell ref="A82:AC82"/>
-    <mergeCell ref="A83:AC83"/>
-    <mergeCell ref="A84:AC84"/>
-    <mergeCell ref="A85:AC85"/>
-    <mergeCell ref="A76:AC76"/>
-    <mergeCell ref="A77:AC77"/>
-    <mergeCell ref="A78:AC78"/>
-    <mergeCell ref="A79:AC79"/>
-    <mergeCell ref="A80:AC80"/>
-    <mergeCell ref="A71:AC71"/>
-    <mergeCell ref="A72:AC72"/>
-    <mergeCell ref="A73:AC73"/>
-    <mergeCell ref="A74:AC74"/>
-    <mergeCell ref="A75:AC75"/>
-    <mergeCell ref="A66:AC66"/>
-    <mergeCell ref="A67:AC67"/>
-    <mergeCell ref="A68:AC68"/>
-    <mergeCell ref="A69:AC69"/>
-    <mergeCell ref="A70:AC70"/>
-    <mergeCell ref="A61:AC61"/>
-    <mergeCell ref="A62:AC62"/>
-    <mergeCell ref="A63:AC63"/>
-    <mergeCell ref="A64:AC64"/>
-    <mergeCell ref="A65:AC65"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:AC57"/>
-    <mergeCell ref="A58:AC58"/>
-    <mergeCell ref="A59:AC59"/>
-    <mergeCell ref="A60:AC60"/>
-    <mergeCell ref="A50:AC50"/>
-    <mergeCell ref="A51:AC51"/>
-    <mergeCell ref="A52:AC52"/>
-    <mergeCell ref="A53:AC53"/>
-    <mergeCell ref="A54:AC54"/>
-    <mergeCell ref="A45:AC45"/>
-    <mergeCell ref="A46:AC46"/>
-    <mergeCell ref="A47:AC47"/>
-    <mergeCell ref="A48:AC48"/>
-    <mergeCell ref="A49:AC49"/>
-    <mergeCell ref="A40:AC40"/>
-    <mergeCell ref="A41:AC41"/>
-    <mergeCell ref="A42:AC42"/>
-    <mergeCell ref="A43:AC43"/>
-    <mergeCell ref="A44:AC44"/>
-    <mergeCell ref="A35:AC35"/>
-    <mergeCell ref="A36:AC36"/>
-    <mergeCell ref="A37:AC37"/>
-    <mergeCell ref="A38:AC38"/>
-    <mergeCell ref="A39:AC39"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:AC31"/>
-    <mergeCell ref="A32:AC32"/>
-    <mergeCell ref="A33:AC33"/>
-    <mergeCell ref="A34:AC34"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="Z9:Z12"/>
-    <mergeCell ref="AA9:AA12"/>
-    <mergeCell ref="AB9:AB12"/>
-    <mergeCell ref="AC9:AC12"/>
-    <mergeCell ref="AD9:AD12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:AD8"/>
     <mergeCell ref="A9:A12"/>
@@ -5154,11 +5080,85 @@
     <mergeCell ref="P9:P12"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="Z9:Z12"/>
+    <mergeCell ref="AA9:AA12"/>
+    <mergeCell ref="AB9:AB12"/>
+    <mergeCell ref="AC9:AC12"/>
+    <mergeCell ref="AD9:AD12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="X10:X12"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:AC31"/>
+    <mergeCell ref="A32:AC32"/>
+    <mergeCell ref="A33:AC33"/>
+    <mergeCell ref="A34:AC34"/>
+    <mergeCell ref="A35:AC35"/>
+    <mergeCell ref="A36:AC36"/>
+    <mergeCell ref="A37:AC37"/>
+    <mergeCell ref="A38:AC38"/>
+    <mergeCell ref="A39:AC39"/>
+    <mergeCell ref="A40:AC40"/>
+    <mergeCell ref="A41:AC41"/>
+    <mergeCell ref="A42:AC42"/>
+    <mergeCell ref="A43:AC43"/>
+    <mergeCell ref="A44:AC44"/>
+    <mergeCell ref="A45:AC45"/>
+    <mergeCell ref="A46:AC46"/>
+    <mergeCell ref="A47:AC47"/>
+    <mergeCell ref="A48:AC48"/>
+    <mergeCell ref="A49:AC49"/>
+    <mergeCell ref="A50:AC50"/>
+    <mergeCell ref="A51:AC51"/>
+    <mergeCell ref="A52:AC52"/>
+    <mergeCell ref="A53:AC53"/>
+    <mergeCell ref="A54:AC54"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:AC57"/>
+    <mergeCell ref="A58:AC58"/>
+    <mergeCell ref="A59:AC59"/>
+    <mergeCell ref="A60:AC60"/>
+    <mergeCell ref="A61:AC61"/>
+    <mergeCell ref="A62:AC62"/>
+    <mergeCell ref="A63:AC63"/>
+    <mergeCell ref="A64:AC64"/>
+    <mergeCell ref="A65:AC65"/>
+    <mergeCell ref="A66:AC66"/>
+    <mergeCell ref="A67:AC67"/>
+    <mergeCell ref="A68:AC68"/>
+    <mergeCell ref="A69:AC69"/>
+    <mergeCell ref="A70:AC70"/>
+    <mergeCell ref="A71:AC71"/>
+    <mergeCell ref="A72:AC72"/>
+    <mergeCell ref="A73:AC73"/>
+    <mergeCell ref="A74:AC74"/>
+    <mergeCell ref="A75:AC75"/>
+    <mergeCell ref="A76:AC76"/>
+    <mergeCell ref="A77:AC77"/>
+    <mergeCell ref="A78:AC78"/>
+    <mergeCell ref="A79:AC79"/>
+    <mergeCell ref="A80:AC80"/>
+    <mergeCell ref="A86:AC86"/>
+    <mergeCell ref="A87:AC87"/>
+    <mergeCell ref="A88:AC88"/>
+    <mergeCell ref="A89:AC89"/>
+    <mergeCell ref="A81:AC81"/>
+    <mergeCell ref="A82:AC82"/>
+    <mergeCell ref="A83:AC83"/>
+    <mergeCell ref="A84:AC84"/>
+    <mergeCell ref="A85:AC85"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Пример.xlsx
+++ b/Пример.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragentX\Desktop\autoCAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8212B72C-9199-4B45-A604-C53DE2D65484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CE372C-6E99-4E7D-86B4-C7BEEC66E9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="223">
   <si>
     <t>Заказчик:</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>0067.2017-03-203-ТК2.ОЛ-0005</t>
-  </si>
-  <si>
-    <t>SEB</t>
   </si>
   <si>
     <t>Рег</t>
@@ -998,80 +995,80 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,8 +1459,8 @@
   </sheetPr>
   <dimension ref="A1:AD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1496,12 +1493,12 @@
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>1</v>
@@ -1509,12 +1506,12 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>3</v>
@@ -1522,12 +1519,12 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>5</v>
@@ -1535,12 +1532,12 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>7</v>
@@ -1548,12 +1545,12 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>9</v>
@@ -1561,242 +1558,242 @@
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
     </row>
     <row r="9" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="36" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="45" t="s">
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="46" t="s">
+      <c r="AA9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AB9" s="41" t="s">
+      <c r="AB9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="47" t="s">
+      <c r="AC9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AD9" s="48" t="s">
+      <c r="AD9" s="45" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="36" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="40" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="R10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="S10" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="37" t="s">
+      <c r="U10" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="37" t="s">
+      <c r="W10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="Y10" s="38" t="s">
+      <c r="Y10" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="48"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="45"/>
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="48"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="45"/>
     </row>
     <row r="12" spans="1:30" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="48"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="45"/>
     </row>
     <row r="13" spans="1:30" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
@@ -2945,10 +2942,10 @@
         <v>177</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>50</v>
@@ -2969,7 +2966,7 @@
         <v>200</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M26" s="29" t="s">
         <v>163</v>
@@ -2984,31 +2981,31 @@
         <v>164</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>165</v>
       </c>
       <c r="S26" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="T26" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="T26" s="29" t="s">
+      <c r="U26" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="U26" s="29" t="s">
+      <c r="V26" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="W26" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="V26" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="W26" s="29" t="s">
-        <v>185</v>
       </c>
       <c r="X26" s="29" t="s">
         <v>171</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z26" s="8" t="s">
         <v>173</v>
@@ -3017,7 +3014,7 @@
         <v>70</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AC26" s="8" t="s">
         <v>53</v>
@@ -3028,16 +3025,16 @@
     </row>
     <row r="27" spans="1:30" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>49</v>
@@ -3061,7 +3058,7 @@
         <v>52</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>128</v>
@@ -3073,7 +3070,7 @@
         <v>79</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>61</v>
@@ -3103,7 +3100,7 @@
         <v>142</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA27" s="8" t="s">
         <v>70</v>
@@ -3123,13 +3120,13 @@
         <v>105</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="D28" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>49</v>
@@ -3165,7 +3162,7 @@
         <v>79</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>61</v>
@@ -3213,1857 +3210,1931 @@
     <row r="29" spans="1:30" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
       <c r="AB29" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD29" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+    </row>
+    <row r="32" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-    </row>
-    <row r="32" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+    </row>
+    <row r="33" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-    </row>
-    <row r="33" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+    </row>
+    <row r="34" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-    </row>
-    <row r="34" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+    </row>
+    <row r="35" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-    </row>
-    <row r="35" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+    </row>
+    <row r="36" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+    </row>
+    <row r="37" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-    </row>
-    <row r="36" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-    </row>
-    <row r="37" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+    </row>
+    <row r="38" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+    </row>
+    <row r="39" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-    </row>
-    <row r="38" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-    </row>
-    <row r="39" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+    </row>
+    <row r="40" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-    </row>
-    <row r="40" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+    </row>
+    <row r="41" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-    </row>
-    <row r="41" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+    </row>
+    <row r="42" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-    </row>
-    <row r="42" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+    </row>
+    <row r="43" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-    </row>
-    <row r="43" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="54"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="54"/>
+      <c r="AC43" s="54"/>
+    </row>
+    <row r="44" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-    </row>
-    <row r="44" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="54"/>
+      <c r="AC44" s="54"/>
+    </row>
+    <row r="45" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-    </row>
-    <row r="45" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54"/>
+      <c r="AC45" s="54"/>
+    </row>
+    <row r="46" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="54"/>
+      <c r="AB46" s="54"/>
+      <c r="AC46" s="54"/>
+    </row>
+    <row r="47" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
-    </row>
-    <row r="46" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
-    </row>
-    <row r="47" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="54"/>
+      <c r="AB47" s="54"/>
+      <c r="AC47" s="54"/>
+    </row>
+    <row r="48" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-    </row>
-    <row r="48" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="54"/>
+      <c r="AB48" s="54"/>
+      <c r="AC48" s="54"/>
+    </row>
+    <row r="49" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-    </row>
-    <row r="49" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="54"/>
+      <c r="AB49" s="54"/>
+      <c r="AC49" s="54"/>
+    </row>
+    <row r="50" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-    </row>
-    <row r="50" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="54"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="54"/>
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54"/>
+      <c r="AA50" s="54"/>
+      <c r="AB50" s="54"/>
+      <c r="AC50" s="54"/>
+    </row>
+    <row r="51" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-    </row>
-    <row r="51" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="54"/>
+      <c r="W51" s="54"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="54"/>
+      <c r="AC51" s="54"/>
+    </row>
+    <row r="52" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-    </row>
-    <row r="52" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="54"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="54"/>
     </row>
     <row r="53" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
+      <c r="A53" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="54"/>
+      <c r="AB53" s="54"/>
+      <c r="AC53" s="54"/>
     </row>
     <row r="54" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="34"/>
+      <c r="A54" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="54"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="54"/>
     </row>
     <row r="55" spans="1:29" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
     </row>
     <row r="57" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
-      <c r="AB57" s="34"/>
-      <c r="AC57" s="34"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
     </row>
     <row r="58" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="54"/>
+      <c r="X58" s="54"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="54"/>
+      <c r="AC58" s="54"/>
     </row>
     <row r="59" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
-      <c r="AB59" s="34"/>
-      <c r="AC59" s="34"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="54"/>
+      <c r="X59" s="54"/>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="54"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="54"/>
     </row>
     <row r="60" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="34"/>
-      <c r="AC60" s="34"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="54"/>
     </row>
     <row r="61" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="34"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
-      <c r="AB61" s="34"/>
-      <c r="AC61" s="34"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
     </row>
     <row r="62" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="54"/>
     </row>
     <row r="63" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="34"/>
-      <c r="AC63" s="34"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
     </row>
     <row r="64" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
-      <c r="AB64" s="34"/>
-      <c r="AC64" s="34"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="54"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="54"/>
     </row>
     <row r="65" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="34"/>
-      <c r="AC65" s="34"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="54"/>
+      <c r="X65" s="54"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="54"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="54"/>
     </row>
     <row r="66" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="54"/>
+      <c r="X66" s="54"/>
+      <c r="Y66" s="54"/>
+      <c r="Z66" s="54"/>
+      <c r="AA66" s="54"/>
+      <c r="AB66" s="54"/>
+      <c r="AC66" s="54"/>
     </row>
     <row r="67" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
-      <c r="AB67" s="34"/>
-      <c r="AC67" s="34"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="54"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="54"/>
+      <c r="W67" s="54"/>
+      <c r="X67" s="54"/>
+      <c r="Y67" s="54"/>
+      <c r="Z67" s="54"/>
+      <c r="AA67" s="54"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="54"/>
     </row>
     <row r="68" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
-      <c r="AB68" s="34"/>
-      <c r="AC68" s="34"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="54"/>
+      <c r="W68" s="54"/>
+      <c r="X68" s="54"/>
+      <c r="Y68" s="54"/>
+      <c r="Z68" s="54"/>
+      <c r="AA68" s="54"/>
+      <c r="AB68" s="54"/>
+      <c r="AC68" s="54"/>
     </row>
     <row r="69" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="34"/>
-      <c r="AC69" s="34"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="54"/>
+      <c r="Y69" s="54"/>
+      <c r="Z69" s="54"/>
+      <c r="AA69" s="54"/>
+      <c r="AB69" s="54"/>
+      <c r="AC69" s="54"/>
     </row>
     <row r="70" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
-      <c r="AB70" s="34"/>
-      <c r="AC70" s="34"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="54"/>
+      <c r="W70" s="54"/>
+      <c r="X70" s="54"/>
+      <c r="Y70" s="54"/>
+      <c r="Z70" s="54"/>
+      <c r="AA70" s="54"/>
+      <c r="AB70" s="54"/>
+      <c r="AC70" s="54"/>
     </row>
     <row r="71" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="34"/>
-      <c r="AC71" s="34"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="54"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="54"/>
+      <c r="W71" s="54"/>
+      <c r="X71" s="54"/>
+      <c r="Y71" s="54"/>
+      <c r="Z71" s="54"/>
+      <c r="AA71" s="54"/>
+      <c r="AB71" s="54"/>
+      <c r="AC71" s="54"/>
     </row>
     <row r="72" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
-      <c r="AB72" s="34"/>
-      <c r="AC72" s="34"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="54"/>
+      <c r="X72" s="54"/>
+      <c r="Y72" s="54"/>
+      <c r="Z72" s="54"/>
+      <c r="AA72" s="54"/>
+      <c r="AB72" s="54"/>
+      <c r="AC72" s="54"/>
     </row>
     <row r="73" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="34"/>
-      <c r="AC73" s="34"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="54"/>
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="54"/>
+      <c r="W73" s="54"/>
+      <c r="X73" s="54"/>
+      <c r="Y73" s="54"/>
+      <c r="Z73" s="54"/>
+      <c r="AA73" s="54"/>
+      <c r="AB73" s="54"/>
+      <c r="AC73" s="54"/>
     </row>
     <row r="74" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="34"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="34"/>
-      <c r="V74" s="34"/>
-      <c r="W74" s="34"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="34"/>
-      <c r="AC74" s="34"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="54"/>
+      <c r="V74" s="54"/>
+      <c r="W74" s="54"/>
+      <c r="X74" s="54"/>
+      <c r="Y74" s="54"/>
+      <c r="Z74" s="54"/>
+      <c r="AA74" s="54"/>
+      <c r="AB74" s="54"/>
+      <c r="AC74" s="54"/>
     </row>
     <row r="75" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="54"/>
+      <c r="T75" s="54"/>
+      <c r="U75" s="54"/>
+      <c r="V75" s="54"/>
+      <c r="W75" s="54"/>
+      <c r="X75" s="54"/>
+      <c r="Y75" s="54"/>
+      <c r="Z75" s="54"/>
+      <c r="AA75" s="54"/>
+      <c r="AB75" s="54"/>
+      <c r="AC75" s="54"/>
     </row>
     <row r="76" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="34"/>
-      <c r="W76" s="34"/>
-      <c r="X76" s="34"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
-      <c r="AB76" s="34"/>
-      <c r="AC76" s="34"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="54"/>
+      <c r="S76" s="54"/>
+      <c r="T76" s="54"/>
+      <c r="U76" s="54"/>
+      <c r="V76" s="54"/>
+      <c r="W76" s="54"/>
+      <c r="X76" s="54"/>
+      <c r="Y76" s="54"/>
+      <c r="Z76" s="54"/>
+      <c r="AA76" s="54"/>
+      <c r="AB76" s="54"/>
+      <c r="AC76" s="54"/>
     </row>
     <row r="77" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
-      <c r="V77" s="34"/>
-      <c r="W77" s="34"/>
-      <c r="X77" s="34"/>
-      <c r="Y77" s="34"/>
-      <c r="Z77" s="34"/>
-      <c r="AA77" s="34"/>
-      <c r="AB77" s="34"/>
-      <c r="AC77" s="34"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="54"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="54"/>
+      <c r="S77" s="54"/>
+      <c r="T77" s="54"/>
+      <c r="U77" s="54"/>
+      <c r="V77" s="54"/>
+      <c r="W77" s="54"/>
+      <c r="X77" s="54"/>
+      <c r="Y77" s="54"/>
+      <c r="Z77" s="54"/>
+      <c r="AA77" s="54"/>
+      <c r="AB77" s="54"/>
+      <c r="AC77" s="54"/>
     </row>
     <row r="78" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="34"/>
-      <c r="W78" s="34"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="34"/>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="34"/>
-      <c r="AC78" s="34"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="54"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="54"/>
+      <c r="S78" s="54"/>
+      <c r="T78" s="54"/>
+      <c r="U78" s="54"/>
+      <c r="V78" s="54"/>
+      <c r="W78" s="54"/>
+      <c r="X78" s="54"/>
+      <c r="Y78" s="54"/>
+      <c r="Z78" s="54"/>
+      <c r="AA78" s="54"/>
+      <c r="AB78" s="54"/>
+      <c r="AC78" s="54"/>
     </row>
     <row r="79" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="34"/>
-      <c r="S79" s="34"/>
-      <c r="T79" s="34"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="34"/>
-      <c r="W79" s="34"/>
-      <c r="X79" s="34"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
-      <c r="AB79" s="34"/>
-      <c r="AC79" s="34"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="54"/>
+      <c r="P79" s="54"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="54"/>
+      <c r="S79" s="54"/>
+      <c r="T79" s="54"/>
+      <c r="U79" s="54"/>
+      <c r="V79" s="54"/>
+      <c r="W79" s="54"/>
+      <c r="X79" s="54"/>
+      <c r="Y79" s="54"/>
+      <c r="Z79" s="54"/>
+      <c r="AA79" s="54"/>
+      <c r="AB79" s="54"/>
+      <c r="AC79" s="54"/>
     </row>
     <row r="80" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
-      <c r="T80" s="32"/>
-      <c r="U80" s="32"/>
-      <c r="V80" s="32"/>
-      <c r="W80" s="32"/>
-      <c r="X80" s="32"/>
-      <c r="Y80" s="32"/>
-      <c r="Z80" s="32"/>
-      <c r="AA80" s="32"/>
-      <c r="AB80" s="32"/>
-      <c r="AC80" s="32"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="55"/>
+      <c r="X80" s="55"/>
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="55"/>
+      <c r="AA80" s="55"/>
+      <c r="AB80" s="55"/>
+      <c r="AC80" s="55"/>
     </row>
     <row r="81" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="32"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="32"/>
-      <c r="W81" s="32"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="32"/>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="32"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="55"/>
+      <c r="W81" s="55"/>
+      <c r="X81" s="55"/>
+      <c r="Y81" s="55"/>
+      <c r="Z81" s="55"/>
+      <c r="AA81" s="55"/>
+      <c r="AB81" s="55"/>
+      <c r="AC81" s="55"/>
     </row>
     <row r="82" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="32"/>
-      <c r="T82" s="32"/>
-      <c r="U82" s="32"/>
-      <c r="V82" s="32"/>
-      <c r="W82" s="32"/>
-      <c r="X82" s="32"/>
-      <c r="Y82" s="32"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="32"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="55"/>
+      <c r="R82" s="55"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
+      <c r="X82" s="55"/>
+      <c r="Y82" s="55"/>
+      <c r="Z82" s="55"/>
+      <c r="AA82" s="55"/>
+      <c r="AB82" s="55"/>
+      <c r="AC82" s="55"/>
     </row>
     <row r="83" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="32"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="32"/>
-      <c r="T83" s="32"/>
-      <c r="U83" s="32"/>
-      <c r="V83" s="32"/>
-      <c r="W83" s="32"/>
-      <c r="X83" s="32"/>
-      <c r="Y83" s="32"/>
-      <c r="Z83" s="32"/>
-      <c r="AA83" s="32"/>
-      <c r="AB83" s="32"/>
-      <c r="AC83" s="32"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="55"/>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="55"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="55"/>
+      <c r="U83" s="55"/>
+      <c r="V83" s="55"/>
+      <c r="W83" s="55"/>
+      <c r="X83" s="55"/>
+      <c r="Y83" s="55"/>
+      <c r="Z83" s="55"/>
+      <c r="AA83" s="55"/>
+      <c r="AB83" s="55"/>
+      <c r="AC83" s="55"/>
     </row>
     <row r="84" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="55"/>
+      <c r="R84" s="55"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="55"/>
+      <c r="V84" s="55"/>
+      <c r="W84" s="55"/>
+      <c r="X84" s="55"/>
+      <c r="Y84" s="55"/>
+      <c r="Z84" s="55"/>
+      <c r="AA84" s="55"/>
+      <c r="AB84" s="55"/>
+      <c r="AC84" s="55"/>
     </row>
     <row r="85" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="32"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="32"/>
-      <c r="Q85" s="32"/>
-      <c r="R85" s="32"/>
-      <c r="S85" s="32"/>
-      <c r="T85" s="32"/>
-      <c r="U85" s="32"/>
-      <c r="V85" s="32"/>
-      <c r="W85" s="32"/>
-      <c r="X85" s="32"/>
-      <c r="Y85" s="32"/>
-      <c r="Z85" s="32"/>
-      <c r="AA85" s="32"/>
-      <c r="AB85" s="32"/>
-      <c r="AC85" s="32"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="55"/>
+      <c r="Q85" s="55"/>
+      <c r="R85" s="55"/>
+      <c r="S85" s="55"/>
+      <c r="T85" s="55"/>
+      <c r="U85" s="55"/>
+      <c r="V85" s="55"/>
+      <c r="W85" s="55"/>
+      <c r="X85" s="55"/>
+      <c r="Y85" s="55"/>
+      <c r="Z85" s="55"/>
+      <c r="AA85" s="55"/>
+      <c r="AB85" s="55"/>
+      <c r="AC85" s="55"/>
     </row>
     <row r="86" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
-      <c r="T86" s="32"/>
-      <c r="U86" s="32"/>
-      <c r="V86" s="32"/>
-      <c r="W86" s="32"/>
-      <c r="X86" s="32"/>
-      <c r="Y86" s="32"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
-      <c r="AB86" s="32"/>
-      <c r="AC86" s="32"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="55"/>
+      <c r="Q86" s="55"/>
+      <c r="R86" s="55"/>
+      <c r="S86" s="55"/>
+      <c r="T86" s="55"/>
+      <c r="U86" s="55"/>
+      <c r="V86" s="55"/>
+      <c r="W86" s="55"/>
+      <c r="X86" s="55"/>
+      <c r="Y86" s="55"/>
+      <c r="Z86" s="55"/>
+      <c r="AA86" s="55"/>
+      <c r="AB86" s="55"/>
+      <c r="AC86" s="55"/>
     </row>
     <row r="87" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="32"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-      <c r="AB87" s="32"/>
-      <c r="AC87" s="32"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="55"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="55"/>
+      <c r="T87" s="55"/>
+      <c r="U87" s="55"/>
+      <c r="V87" s="55"/>
+      <c r="W87" s="55"/>
+      <c r="X87" s="55"/>
+      <c r="Y87" s="55"/>
+      <c r="Z87" s="55"/>
+      <c r="AA87" s="55"/>
+      <c r="AB87" s="55"/>
+      <c r="AC87" s="55"/>
     </row>
     <row r="88" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
-      <c r="T88" s="32"/>
-      <c r="U88" s="32"/>
-      <c r="V88" s="32"/>
-      <c r="W88" s="32"/>
-      <c r="X88" s="32"/>
-      <c r="Y88" s="32"/>
-      <c r="Z88" s="32"/>
-      <c r="AA88" s="32"/>
-      <c r="AB88" s="32"/>
-      <c r="AC88" s="32"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="55"/>
+      <c r="S88" s="55"/>
+      <c r="T88" s="55"/>
+      <c r="U88" s="55"/>
+      <c r="V88" s="55"/>
+      <c r="W88" s="55"/>
+      <c r="X88" s="55"/>
+      <c r="Y88" s="55"/>
+      <c r="Z88" s="55"/>
+      <c r="AA88" s="55"/>
+      <c r="AB88" s="55"/>
+      <c r="AC88" s="55"/>
     </row>
     <row r="89" spans="1:29" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="33"/>
-      <c r="W89" s="33"/>
-      <c r="X89" s="33"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
-      <c r="AB89" s="33"/>
-      <c r="AC89" s="33"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="56"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
+      <c r="T89" s="56"/>
+      <c r="U89" s="56"/>
+      <c r="V89" s="56"/>
+      <c r="W89" s="56"/>
+      <c r="X89" s="56"/>
+      <c r="Y89" s="56"/>
+      <c r="Z89" s="56"/>
+      <c r="AA89" s="56"/>
+      <c r="AB89" s="56"/>
+      <c r="AC89" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:Z54" xr:uid="{5876C7B6-EB21-43CA-9CC3-9F63BB92AC20}"/>
   <mergeCells count="100">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A86:AC86"/>
+    <mergeCell ref="A87:AC87"/>
+    <mergeCell ref="A88:AC88"/>
+    <mergeCell ref="A89:AC89"/>
+    <mergeCell ref="A81:AC81"/>
+    <mergeCell ref="A82:AC82"/>
+    <mergeCell ref="A83:AC83"/>
+    <mergeCell ref="A84:AC84"/>
+    <mergeCell ref="A85:AC85"/>
+    <mergeCell ref="A76:AC76"/>
+    <mergeCell ref="A77:AC77"/>
+    <mergeCell ref="A78:AC78"/>
+    <mergeCell ref="A79:AC79"/>
+    <mergeCell ref="A80:AC80"/>
+    <mergeCell ref="A71:AC71"/>
+    <mergeCell ref="A72:AC72"/>
+    <mergeCell ref="A73:AC73"/>
+    <mergeCell ref="A74:AC74"/>
+    <mergeCell ref="A75:AC75"/>
+    <mergeCell ref="A66:AC66"/>
+    <mergeCell ref="A67:AC67"/>
+    <mergeCell ref="A68:AC68"/>
+    <mergeCell ref="A69:AC69"/>
+    <mergeCell ref="A70:AC70"/>
+    <mergeCell ref="A61:AC61"/>
+    <mergeCell ref="A62:AC62"/>
+    <mergeCell ref="A63:AC63"/>
+    <mergeCell ref="A64:AC64"/>
+    <mergeCell ref="A65:AC65"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:AC57"/>
+    <mergeCell ref="A58:AC58"/>
+    <mergeCell ref="A59:AC59"/>
+    <mergeCell ref="A60:AC60"/>
+    <mergeCell ref="A50:AC50"/>
+    <mergeCell ref="A51:AC51"/>
+    <mergeCell ref="A52:AC52"/>
+    <mergeCell ref="A53:AC53"/>
+    <mergeCell ref="A54:AC54"/>
+    <mergeCell ref="A45:AC45"/>
+    <mergeCell ref="A46:AC46"/>
+    <mergeCell ref="A47:AC47"/>
+    <mergeCell ref="A48:AC48"/>
+    <mergeCell ref="A49:AC49"/>
+    <mergeCell ref="A40:AC40"/>
+    <mergeCell ref="A41:AC41"/>
+    <mergeCell ref="A42:AC42"/>
+    <mergeCell ref="A43:AC43"/>
+    <mergeCell ref="A44:AC44"/>
+    <mergeCell ref="A35:AC35"/>
+    <mergeCell ref="A36:AC36"/>
+    <mergeCell ref="A37:AC37"/>
+    <mergeCell ref="A38:AC38"/>
+    <mergeCell ref="A39:AC39"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:AC31"/>
+    <mergeCell ref="A32:AC32"/>
+    <mergeCell ref="A33:AC33"/>
+    <mergeCell ref="A34:AC34"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="X10:X12"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="Z9:Z12"/>
+    <mergeCell ref="AA9:AA12"/>
+    <mergeCell ref="AB9:AB12"/>
+    <mergeCell ref="AC9:AC12"/>
+    <mergeCell ref="AD9:AD12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:AD8"/>
     <mergeCell ref="A9:A12"/>
@@ -5080,85 +5151,11 @@
     <mergeCell ref="P9:P12"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="Z9:Z12"/>
-    <mergeCell ref="AA9:AA12"/>
-    <mergeCell ref="AB9:AB12"/>
-    <mergeCell ref="AC9:AC12"/>
-    <mergeCell ref="AD9:AD12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:AC31"/>
-    <mergeCell ref="A32:AC32"/>
-    <mergeCell ref="A33:AC33"/>
-    <mergeCell ref="A34:AC34"/>
-    <mergeCell ref="A35:AC35"/>
-    <mergeCell ref="A36:AC36"/>
-    <mergeCell ref="A37:AC37"/>
-    <mergeCell ref="A38:AC38"/>
-    <mergeCell ref="A39:AC39"/>
-    <mergeCell ref="A40:AC40"/>
-    <mergeCell ref="A41:AC41"/>
-    <mergeCell ref="A42:AC42"/>
-    <mergeCell ref="A43:AC43"/>
-    <mergeCell ref="A44:AC44"/>
-    <mergeCell ref="A45:AC45"/>
-    <mergeCell ref="A46:AC46"/>
-    <mergeCell ref="A47:AC47"/>
-    <mergeCell ref="A48:AC48"/>
-    <mergeCell ref="A49:AC49"/>
-    <mergeCell ref="A50:AC50"/>
-    <mergeCell ref="A51:AC51"/>
-    <mergeCell ref="A52:AC52"/>
-    <mergeCell ref="A53:AC53"/>
-    <mergeCell ref="A54:AC54"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:AC57"/>
-    <mergeCell ref="A58:AC58"/>
-    <mergeCell ref="A59:AC59"/>
-    <mergeCell ref="A60:AC60"/>
-    <mergeCell ref="A61:AC61"/>
-    <mergeCell ref="A62:AC62"/>
-    <mergeCell ref="A63:AC63"/>
-    <mergeCell ref="A64:AC64"/>
-    <mergeCell ref="A65:AC65"/>
-    <mergeCell ref="A66:AC66"/>
-    <mergeCell ref="A67:AC67"/>
-    <mergeCell ref="A68:AC68"/>
-    <mergeCell ref="A69:AC69"/>
-    <mergeCell ref="A70:AC70"/>
-    <mergeCell ref="A71:AC71"/>
-    <mergeCell ref="A72:AC72"/>
-    <mergeCell ref="A73:AC73"/>
-    <mergeCell ref="A74:AC74"/>
-    <mergeCell ref="A75:AC75"/>
-    <mergeCell ref="A76:AC76"/>
-    <mergeCell ref="A77:AC77"/>
-    <mergeCell ref="A78:AC78"/>
-    <mergeCell ref="A79:AC79"/>
-    <mergeCell ref="A80:AC80"/>
-    <mergeCell ref="A86:AC86"/>
-    <mergeCell ref="A87:AC87"/>
-    <mergeCell ref="A88:AC88"/>
-    <mergeCell ref="A89:AC89"/>
-    <mergeCell ref="A81:AC81"/>
-    <mergeCell ref="A82:AC82"/>
-    <mergeCell ref="A83:AC83"/>
-    <mergeCell ref="A84:AC84"/>
-    <mergeCell ref="A85:AC85"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
